--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/10,25/27,10,25 Малахутин на погрузку с филиалами 01,11,25/Малахутин А В 04.11.2025.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/10,25/27,10,25 Малахутин на погрузку с филиалами 01,11,25/Малахутин А В 04.11.2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\27,10,25 Малахутин на погрузку с филиалами 01,11,25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\10,25\27,10,25 Малахутин на погрузку с филиалами 01,11,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A163D5A9-08D1-43B8-9FFB-4A7E6775090A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D65F84-0FDB-4FF1-806E-47949184F2CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1712,7 +1712,7 @@
   <dimension ref="A1:V474"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
